--- a/metadata/rms/RMAAtemp/02-data_1878-2019.xlsx
+++ b/metadata/rms/RMAAtemp/02-data_1878-2019.xlsx
@@ -1896,4 +1896,248 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100622C72A1DD75CA4D87E39FE37B04C3D3" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a181992610faed44b90126dc36e4bac8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6584b4ba-af75-4ac8-8379-7172592f8823" xmlns:ns3="a9e4a452-7199-439f-b4c2-3c6fe4528eb3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eb744a54a586913629e94f53228026f2" ns2:_="" ns3:_="">
+    <xsd:import namespace="6584b4ba-af75-4ac8-8379-7172592f8823"/>
+    <xsd:import namespace="a9e4a452-7199-439f-b4c2-3c6fe4528eb3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6584b4ba-af75-4ac8-8379-7172592f8823" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoTags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="MediaServiceLocation" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a9e4a452-7199-439f-b4c2-3c6fe4528eb3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{462EF61F-59DB-425A-9527-D50E760589F2}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D4D1FC-25F3-4A30-82B9-6E0868C2B4FE}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80FAE16B-EC09-4D87-BD22-BCA25786D96C}"/>
 </file>
--- a/metadata/rms/RMAAtemp/02-data_1878-2019.xlsx
+++ b/metadata/rms/RMAAtemp/02-data_1878-2019.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\tera\metadata\met\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rothamsted.sharepoint.com/sites/e-RA/Shared Documents/Data-docs repository/metadata/rms/RMAAtemp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A3C8800-6961-413E-8FA5-D47585D4D103}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{7A3C8800-6961-413E-8FA5-D47585D4D103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3CF8F3C-E572-45C7-9AAD-D42BBF8407DF}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4020" windowWidth="19230" windowHeight="3795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data " sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Year</t>
   </si>
@@ -45,13 +58,16 @@
   <si>
     <t>Rothamsted mean annual air temperature and 5-year means °C, 1878-2019</t>
   </si>
+  <si>
+    <t xml:space="preserve">this is the current oa dataset up to 2019  - edit this for the data up to 2022 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -71,7 +87,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -81,6 +97,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -97,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -113,15 +135,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,26 +489,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G151"/>
+  <dimension ref="A1:P151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="K7" sqref="K7:P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
@@ -496,7 +519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>1878</v>
       </c>
@@ -511,7 +534,7 @@
         <v>11.233180821917811</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>1879</v>
       </c>
@@ -526,7 +549,7 @@
         <v>7.2668493150684936</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>1880</v>
       </c>
@@ -543,7 +566,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>1881</v>
       </c>
@@ -557,8 +580,17 @@
       <c r="G7" s="3">
         <v>1879</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="J7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>1882</v>
       </c>
@@ -567,7 +599,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>1883</v>
       </c>
@@ -576,7 +608,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1884</v>
       </c>
@@ -585,7 +617,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>1885</v>
       </c>
@@ -596,7 +628,7 @@
         <v>8.705401901339922</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>1886</v>
       </c>
@@ -605,7 +637,7 @@
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>1887</v>
       </c>
@@ -614,7 +646,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>1888</v>
       </c>
@@ -623,7 +655,7 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>1889</v>
       </c>
@@ -632,7 +664,7 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>1890</v>
       </c>
@@ -643,7 +675,7 @@
         <v>8.3648153454599896</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>1891</v>
       </c>
@@ -652,7 +684,7 @@
       </c>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>1892</v>
       </c>
@@ -661,7 +693,7 @@
       </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>1893</v>
       </c>
@@ -670,7 +702,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>1894</v>
       </c>
@@ -679,7 +711,7 @@
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>1895</v>
       </c>
@@ -690,7 +722,7 @@
         <v>9.2026284452429081</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>1896</v>
       </c>
@@ -699,7 +731,7 @@
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>1897</v>
       </c>
@@ -708,7 +740,7 @@
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>1898</v>
       </c>
@@ -717,7 +749,7 @@
       </c>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>1899</v>
       </c>
@@ -726,7 +758,7 @@
       </c>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>1900</v>
       </c>
@@ -737,7 +769,7 @@
         <v>9.2585643835616445</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>1901</v>
       </c>
@@ -746,7 +778,7 @@
       </c>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <v>1902</v>
       </c>
@@ -755,7 +787,7 @@
       </c>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>1903</v>
       </c>
@@ -764,7 +796,7 @@
       </c>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>1904</v>
       </c>
@@ -773,7 +805,7 @@
       </c>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>1905</v>
       </c>
@@ -784,7 +816,7 @@
         <v>9.0737328692267383</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>1906</v>
       </c>
@@ -793,7 +825,7 @@
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>1907</v>
       </c>
@@ -802,7 +834,7 @@
       </c>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
         <v>1908</v>
       </c>
@@ -811,7 +843,7 @@
       </c>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="4">
         <v>1909</v>
       </c>
@@ -820,7 +852,7 @@
       </c>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="4">
         <v>1910</v>
       </c>
@@ -831,7 +863,7 @@
         <v>9.2126083389475273</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="4">
         <v>1911</v>
       </c>
@@ -840,7 +872,7 @@
       </c>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
         <v>1912</v>
       </c>
@@ -849,7 +881,7 @@
       </c>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <v>1913</v>
       </c>
@@ -858,7 +890,7 @@
       </c>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>1914</v>
       </c>
@@ -867,7 +899,7 @@
       </c>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <v>1915</v>
       </c>
@@ -878,7 +910,7 @@
         <v>8.9871150834643316</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
         <v>1916</v>
       </c>
@@ -887,7 +919,7 @@
       </c>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <v>1917</v>
       </c>
@@ -896,7 +928,7 @@
       </c>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="4">
         <v>1918</v>
       </c>
@@ -905,7 +937,7 @@
       </c>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="4">
         <v>1919</v>
       </c>
@@ -914,7 +946,7 @@
       </c>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="4">
         <v>1920</v>
       </c>
@@ -925,7 +957,7 @@
         <v>9.0030484317688444</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="4">
         <v>1921</v>
       </c>
@@ -934,7 +966,7 @@
       </c>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="4">
         <v>1922</v>
       </c>
@@ -943,7 +975,7 @@
       </c>
       <c r="D48" s="5"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
         <v>1923</v>
       </c>
@@ -952,7 +984,7 @@
       </c>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
         <v>1924</v>
       </c>
@@ -961,7 +993,7 @@
       </c>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
         <v>1925</v>
       </c>
@@ -972,7 +1004,7 @@
         <v>8.895168395838013</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
         <v>1926</v>
       </c>
@@ -981,7 +1013,7 @@
       </c>
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
         <v>1927</v>
       </c>
@@ -990,7 +1022,7 @@
       </c>
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="4">
         <v>1928</v>
       </c>
@@ -999,7 +1031,7 @@
       </c>
       <c r="D54" s="5"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="4">
         <v>1929</v>
       </c>
@@ -1008,7 +1040,7 @@
       </c>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="4">
         <v>1930</v>
       </c>
@@ -1019,7 +1051,7 @@
         <v>8.9552146418145071</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="4">
         <v>1931</v>
       </c>
@@ -1028,7 +1060,7 @@
       </c>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="4">
         <v>1932</v>
       </c>
@@ -1037,7 +1069,7 @@
       </c>
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="3">
         <v>1933</v>
       </c>
@@ -1046,7 +1078,7 @@
       </c>
       <c r="D59" s="6"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
         <v>1934</v>
       </c>
@@ -1055,7 +1087,7 @@
       </c>
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="3">
         <v>1935</v>
       </c>
@@ -1066,7 +1098,7 @@
         <v>9.3405590687925741</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
         <v>1936</v>
       </c>
@@ -1075,7 +1107,7 @@
       </c>
       <c r="D62" s="6"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="3">
         <v>1937</v>
       </c>
@@ -1084,7 +1116,7 @@
       </c>
       <c r="D63" s="6"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="4">
         <v>1938</v>
       </c>
@@ -1093,7 +1125,7 @@
       </c>
       <c r="D64" s="5"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="4">
         <v>1939</v>
       </c>
@@ -1102,7 +1134,7 @@
       </c>
       <c r="D65" s="5"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="4">
         <v>1940</v>
       </c>
@@ -1113,7 +1145,7 @@
         <v>8.9882804700950665</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="4">
         <v>1941</v>
       </c>
@@ -1122,7 +1154,7 @@
       </c>
       <c r="D67" s="5"/>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="4">
         <v>1942</v>
       </c>
@@ -1131,7 +1163,7 @@
       </c>
       <c r="D68" s="5"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="3">
         <v>1943</v>
       </c>
@@ -1140,7 +1172,7 @@
       </c>
       <c r="D69" s="6"/>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="3">
         <v>1944</v>
       </c>
@@ -1149,7 +1181,7 @@
       </c>
       <c r="D70" s="6"/>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="3">
         <v>1945</v>
       </c>
@@ -1160,7 +1192,7 @@
         <v>9.5004703346058825</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="3">
         <v>1946</v>
       </c>
@@ -1169,7 +1201,7 @@
       </c>
       <c r="D72" s="6"/>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="3">
         <v>1947</v>
       </c>
@@ -1178,7 +1210,7 @@
       </c>
       <c r="D73" s="6"/>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="4">
         <v>1948</v>
       </c>
@@ -1187,7 +1219,7 @@
       </c>
       <c r="D74" s="5"/>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="4">
         <v>1949</v>
       </c>
@@ -1196,7 +1228,7 @@
       </c>
       <c r="D75" s="5"/>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="4">
         <v>1950</v>
       </c>
@@ -1207,7 +1239,7 @@
         <v>9.4203644434463669</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="4">
         <v>1951</v>
       </c>
@@ -1216,7 +1248,7 @@
       </c>
       <c r="D77" s="5"/>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="4">
         <v>1952</v>
       </c>
@@ -1225,7 +1257,7 @@
       </c>
       <c r="D78" s="5"/>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="3">
         <v>1953</v>
       </c>
@@ -1234,7 +1266,7 @@
       </c>
       <c r="D79" s="6"/>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="3">
         <v>1954</v>
       </c>
@@ -1243,7 +1275,7 @@
       </c>
       <c r="D80" s="6"/>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
         <v>1955</v>
       </c>
@@ -1254,7 +1286,7 @@
         <v>9.1441872295830517</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="3">
         <v>1956</v>
       </c>
@@ -1263,7 +1295,7 @@
       </c>
       <c r="D82" s="6"/>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="3">
         <v>1957</v>
       </c>
@@ -1272,7 +1304,7 @@
       </c>
       <c r="D83" s="6"/>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="4">
         <v>1958</v>
       </c>
@@ -1281,7 +1313,7 @@
       </c>
       <c r="D84" s="5"/>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="4">
         <v>1959</v>
       </c>
@@ -1290,7 +1322,7 @@
       </c>
       <c r="D85" s="5"/>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="4">
         <v>1960</v>
       </c>
@@ -1301,7 +1333,7 @@
         <v>9.3170976719814345</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="4">
         <v>1961</v>
       </c>
@@ -1310,7 +1342,7 @@
       </c>
       <c r="D87" s="5"/>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="4">
         <v>1962</v>
       </c>
@@ -1319,7 +1351,7 @@
       </c>
       <c r="D88" s="5"/>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="3">
         <v>1963</v>
       </c>
@@ -1328,7 +1360,7 @@
       </c>
       <c r="D89" s="6"/>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="3">
         <v>1964</v>
       </c>
@@ -1337,7 +1369,7 @@
       </c>
       <c r="D90" s="6"/>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="3">
         <v>1965</v>
       </c>
@@ -1348,7 +1380,7 @@
         <v>8.8357260573396221</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="3">
         <v>1966</v>
       </c>
@@ -1357,7 +1389,7 @@
       </c>
       <c r="D92" s="6"/>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="3">
         <v>1967</v>
       </c>
@@ -1366,7 +1398,7 @@
       </c>
       <c r="D93" s="6"/>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="4">
         <v>1968</v>
       </c>
@@ -1375,7 +1407,7 @@
       </c>
       <c r="D94" s="5"/>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="4">
         <v>1969</v>
       </c>
@@ -1384,7 +1416,7 @@
       </c>
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="4">
         <v>1970</v>
       </c>
@@ -1395,7 +1427,7 @@
         <v>9.0984267984130547</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="4">
         <v>1971</v>
       </c>
@@ -1404,7 +1436,7 @@
       </c>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="4">
         <v>1972</v>
       </c>
@@ -1413,7 +1445,7 @@
       </c>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="3">
         <v>1973</v>
       </c>
@@ -1422,7 +1454,7 @@
       </c>
       <c r="D99" s="6"/>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="3">
         <v>1974</v>
       </c>
@@ -1431,7 +1463,7 @@
       </c>
       <c r="D100" s="6"/>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="3">
         <v>1975</v>
       </c>
@@ -1442,7 +1474,7 @@
         <v>9.4715251890111514</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="3">
         <v>1976</v>
       </c>
@@ -1451,7 +1483,7 @@
       </c>
       <c r="D102" s="6"/>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="3">
         <v>1977</v>
       </c>
@@ -1460,7 +1492,7 @@
       </c>
       <c r="D103" s="6"/>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="4">
         <v>1978</v>
       </c>
@@ -1469,7 +1501,7 @@
       </c>
       <c r="D104" s="5"/>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="4">
         <v>1979</v>
       </c>
@@ -1478,7 +1510,7 @@
       </c>
       <c r="D105" s="5"/>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="4">
         <v>1980</v>
       </c>
@@ -1489,7 +1521,7 @@
         <v>8.9947227487087353</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" s="4">
         <v>1981</v>
       </c>
@@ -1498,7 +1530,7 @@
       </c>
       <c r="D107" s="9"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="4">
         <v>1982</v>
       </c>
@@ -1507,7 +1539,7 @@
       </c>
       <c r="D108" s="9"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="3">
         <v>1983</v>
       </c>
@@ -1516,7 +1548,7 @@
       </c>
       <c r="D109" s="7"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="3">
         <v>1984</v>
       </c>
@@ -1525,7 +1557,7 @@
       </c>
       <c r="D110" s="6"/>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="3">
         <v>1985</v>
       </c>
@@ -1536,7 +1568,7 @@
         <v>8.9981811213414176</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" s="3">
         <v>1986</v>
       </c>
@@ -1545,7 +1577,7 @@
       </c>
       <c r="D112" s="6"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B113" s="3">
         <v>1987</v>
       </c>
@@ -1554,7 +1586,7 @@
       </c>
       <c r="D113" s="6"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B114" s="4">
         <v>1988</v>
       </c>
@@ -1563,7 +1595,7 @@
       </c>
       <c r="D114" s="5"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B115" s="4">
         <v>1989</v>
       </c>
@@ -1572,7 +1604,7 @@
       </c>
       <c r="D115" s="5"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B116" s="4">
         <v>1990</v>
       </c>
@@ -1583,7 +1615,7 @@
         <v>9.8015957481847451</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B117" s="4">
         <v>1991</v>
       </c>
@@ -1592,7 +1624,7 @@
       </c>
       <c r="D117" s="5"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B118" s="4">
         <v>1992</v>
       </c>
@@ -1601,7 +1633,7 @@
       </c>
       <c r="D118" s="5"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B119" s="3">
         <v>1993</v>
       </c>
@@ -1610,7 +1642,7 @@
       </c>
       <c r="D119" s="6"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B120" s="3">
         <v>1994</v>
       </c>
@@ -1619,7 +1651,7 @@
       </c>
       <c r="D120" s="6"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B121" s="3">
         <v>1995</v>
       </c>
@@ -1630,7 +1662,7 @@
         <v>9.9005835616438365</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B122" s="3">
         <v>1996</v>
       </c>
@@ -1639,7 +1671,7 @@
       </c>
       <c r="D122" s="6"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B123" s="3">
         <v>1997</v>
       </c>
@@ -1648,7 +1680,7 @@
       </c>
       <c r="D123" s="6"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="4">
         <v>1998</v>
@@ -1658,7 +1690,7 @@
       </c>
       <c r="D124" s="5"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="4">
         <v>1999</v>
@@ -1668,7 +1700,7 @@
       </c>
       <c r="D125" s="5"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="4">
         <v>2000</v>
@@ -1680,7 +1712,7 @@
         <v>10.289741208174267</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="4">
         <v>2001</v>
@@ -1690,7 +1722,7 @@
       </c>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="4">
         <v>2002</v>
@@ -1700,7 +1732,7 @@
       </c>
       <c r="D128" s="5"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="3">
         <v>2003</v>
@@ -1710,7 +1742,7 @@
       </c>
       <c r="D129" s="6"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B130" s="3">
         <v>2004</v>
       </c>
@@ -1719,7 +1751,7 @@
       </c>
       <c r="D130" s="6"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B131" s="3">
         <v>2005</v>
       </c>
@@ -1730,7 +1762,7 @@
         <v>10.524036754248073</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B132" s="3">
         <v>2006</v>
       </c>
@@ -1739,7 +1771,7 @@
       </c>
       <c r="D132" s="6"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B133" s="3">
         <v>2007</v>
       </c>
@@ -1748,7 +1780,7 @@
       </c>
       <c r="D133" s="6"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B134" s="4">
         <v>2008</v>
       </c>
@@ -1757,7 +1789,7 @@
       </c>
       <c r="D134" s="5"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B135" s="4">
         <v>2009</v>
       </c>
@@ -1766,7 +1798,7 @@
       </c>
       <c r="D135" s="5"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B136" s="4">
         <v>2010</v>
       </c>
@@ -1777,7 +1809,7 @@
         <v>9.9651524852159614</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B137" s="4">
         <v>2011</v>
       </c>
@@ -1786,7 +1818,7 @@
       </c>
       <c r="D137" s="5"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B138" s="4">
         <v>2012</v>
       </c>
@@ -1795,7 +1827,7 @@
       </c>
       <c r="D138" s="5"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B139" s="3">
         <v>2013</v>
       </c>
@@ -1804,7 +1836,7 @@
       </c>
       <c r="D139" s="7"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B140" s="3">
         <v>2014</v>
       </c>
@@ -1813,7 +1845,7 @@
       </c>
       <c r="D140" s="7"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B141" s="3">
         <v>2015</v>
       </c>
@@ -1824,7 +1856,7 @@
         <v>10.439842821731959</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B142" s="3">
         <v>2016</v>
       </c>
@@ -1832,7 +1864,7 @@
         <v>10.36664344262295</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
         <v>2017</v>
       </c>
@@ -1840,7 +1872,7 @@
         <v>10.620815068493151</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B144" s="4">
         <v>2018</v>
       </c>
@@ -1849,7 +1881,7 @@
       </c>
       <c r="D144" s="4"/>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" s="4">
         <v>2019</v>
       </c>
@@ -1858,7 +1890,7 @@
       </c>
       <c r="D145" s="4"/>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" s="3" t="s">
         <v>5</v>
       </c>
@@ -1866,7 +1898,7 @@
         <v>11.233180821917811</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" s="3" t="s">
         <v>6</v>
       </c>
@@ -1874,7 +1906,7 @@
         <v>7.2668493150684936</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" s="3" t="s">
         <v>1</v>
       </c>
@@ -1882,7 +1914,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" s="3" t="s">
         <v>2</v>
       </c>
@@ -1899,10 +1931,31 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100622C72A1DD75CA4D87E39FE37B04C3D3" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a181992610faed44b90126dc36e4bac8">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6584b4ba-af75-4ac8-8379-7172592f8823" xmlns:ns3="a9e4a452-7199-439f-b4c2-3c6fe4528eb3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eb744a54a586913629e94f53228026f2" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="bf3d09fe-6738-443d-9673-b7ff0d7dd09c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6584b4ba-af75-4ac8-8379-7172592f8823">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100622C72A1DD75CA4D87E39FE37B04C3D3" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cbcd27b9bbfb2ff1f89815214e07a308">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6584b4ba-af75-4ac8-8379-7172592f8823" xmlns:ns3="a9e4a452-7199-439f-b4c2-3c6fe4528eb3" xmlns:ns4="bf3d09fe-6738-443d-9673-b7ff0d7dd09c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="68f21cb51b51f3891e8291675b4a9859" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="6584b4ba-af75-4ac8-8379-7172592f8823"/>
     <xsd:import namespace="a9e4a452-7199-439f-b4c2-3c6fe4528eb3"/>
+    <xsd:import namespace="bf3d09fe-6738-443d-9673-b7ff0d7dd09c"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -1921,6 +1974,9 @@
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1985,6 +2041,18 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="7890e11c-1d58-4a8b-9e3e-7b4984dfdb43" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="23" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a9e4a452-7199-439f-b4c2-3c6fe4528eb3" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -2014,6 +2082,21 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bf3d09fe-6738-443d-9673-b7ff0d7dd09c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{b2b1470b-29f3-425a-b62b-0ed47345bad7}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a9e4a452-7199-439f-b4c2-3c6fe4528eb3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -2115,29 +2198,23 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{462EF61F-59DB-425A-9527-D50E760589F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80FAE16B-EC09-4D87-BD22-BCA25786D96C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D4D1FC-25F3-4A30-82B9-6E0868C2B4FE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D4D1FC-25F3-4A30-82B9-6E0868C2B4FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80FAE16B-EC09-4D87-BD22-BCA25786D96C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53F7BFEB-ABB0-4E61-8495-70D1C930C4FE}"/>
 </file>